--- a/utils/新建.xlsx
+++ b/utils/新建.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huachao\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="5840"/>
   </bookViews>
   <sheets>
-    <sheet name="表格1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="表格1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
   </si>
@@ -38,20 +42,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,15 +77,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -363,20 +382,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -398,7 +413,31 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>